--- a/data/macro/China/Taiwan Export.xlsx
+++ b/data/macro/China/Taiwan Export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\macro\China\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7CB83-7848-4C80-AE87-D7E1A7D298B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEBF1D6-6BDA-462B-BA25-999468CE1FC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="7365" xr2:uid="{696C4E50-B2D2-406E-8FD7-1C3C49A10F1B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="12">
   <si>
     <t>Release Date</t>
   </si>
@@ -472,21 +472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C4376D-A458-42DB-8BE7-3CEB15B1B3CC}">
-  <dimension ref="A1:G528"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="I529" sqref="I529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11464,6 +11465,29 @@
       </c>
       <c r="G528" s="1">
         <v>0.497</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B529" s="8">
+        <v>46031</v>
+      </c>
+      <c r="C529" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E529" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="F529" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G529" s="1">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
